--- a/trunk/Gestión de Cambios/Control de Cambios.xlsx
+++ b/trunk/Gestión de Cambios/Control de Cambios.xlsx
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,9 +177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,6 +199,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,17 +510,17 @@
   <dimension ref="B3:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="7"/>
     <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="7"/>
-    <col min="4" max="4" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="91" style="7" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
@@ -530,16 +533,16 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -550,10 +553,10 @@
       <c r="D5" s="6">
         <v>40625</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>0</v>
       </c>
     </row>
@@ -564,10 +567,10 @@
       <c r="D6" s="6">
         <v>40627</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>1</v>
       </c>
     </row>
@@ -578,10 +581,10 @@
       <c r="D7" s="6">
         <v>40632</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>2</v>
       </c>
     </row>
@@ -592,10 +595,10 @@
       <c r="D8" s="6">
         <v>40680</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>6</v>
       </c>
     </row>
@@ -618,86 +621,86 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>40630</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>40632</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>1.2</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>40637</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>40648</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>3</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>40680</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>6</v>
       </c>
     </row>
